--- a/Participant_Afterimage_Image_VVIQ_Data.xlsx
+++ b/Participant_Afterimage_Image_VVIQ_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih-my.sharepoint.com/personal/kronemersi_nih_gov/Documents/Manuscripts/Accepted/Kronemer_Afterimages_Imagery/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{2434F487-BC94-FD4A-B2B1-B349777EE1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0C02107-4011-DC4C-8234-65234EB2655E}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{2434F487-BC94-FD4A-B2B1-B349777EE1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7C4C25E-F807-EB42-AF0C-114A4A486BFE}"/>
   <bookViews>
-    <workbookView xWindow="26780" yWindow="5620" windowWidth="48360" windowHeight="25800" xr2:uid="{C0F7A6CD-6B59-3E42-A013-A6FD137DA31E}"/>
+    <workbookView xWindow="9900" yWindow="760" windowWidth="29540" windowHeight="18880" xr2:uid="{C0F7A6CD-6B59-3E42-A013-A6FD137DA31E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,13 +254,13 @@
     <t>Afterimage Perception Rate</t>
   </si>
   <si>
-    <t>True vs Selected Image Sharpness</t>
-  </si>
-  <si>
-    <t>True vs Selected Image Contrast</t>
-  </si>
-  <si>
-    <t>True vs Selected Image Duration</t>
+    <t>True Minus Selected Image Duration</t>
+  </si>
+  <si>
+    <t>True Minus Selected Image Contrast</t>
+  </si>
+  <si>
+    <t>True Minus Selected Image Sharpness</t>
   </si>
 </sst>
 </file>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57FEB6B-4E21-9646-BFAC-F15BE27A7A8B}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,13 +694,13 @@
     <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="33.83203125" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="32.5" customWidth="1"/>
+    <col min="8" max="8" width="35.5" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="32.5" customWidth="1"/>
+    <col min="11" max="11" width="36" customWidth="1"/>
     <col min="12" max="12" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -718,7 +718,7 @@
         <v>65</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>66</v>
@@ -736,7 +736,7 @@
         <v>69</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>70</v>
